--- a/Database/Csaki/Germania.xlsx
+++ b/Database/Csaki/Germania.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7816309C-3AAF-4A01-891E-17C4F1E8D4CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CCB533-88B9-44A3-A100-0E358759D0B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="8385" windowWidth="4710" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2340" yWindow="1425" windowWidth="4710" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2846,6 +2846,104 @@
         <v>9232</v>
       </c>
     </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" s="2">
+        <v>213080</v>
+      </c>
+      <c r="C173" s="3">
+        <v>760</v>
+      </c>
+      <c r="D173" s="4">
+        <v>9232</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="2">
+        <v>214104</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1024</v>
+      </c>
+      <c r="D174" s="4">
+        <v>9245</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" s="2">
+        <v>215210</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1106</v>
+      </c>
+      <c r="D175" s="4">
+        <v>9252</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" s="2">
+        <v>216315</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1105</v>
+      </c>
+      <c r="D176" s="4">
+        <v>9254</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="2">
+        <v>216896</v>
+      </c>
+      <c r="C177" s="3">
+        <v>581</v>
+      </c>
+      <c r="D177" s="4">
+        <v>9260</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="2">
+        <v>217281</v>
+      </c>
+      <c r="C178" s="3">
+        <v>385</v>
+      </c>
+      <c r="D178" s="4">
+        <v>9260</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="2">
+        <v>218500</v>
+      </c>
+      <c r="C179" s="3">
+        <v>1219</v>
+      </c>
+      <c r="D179" s="4">
+        <v>9265</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/Csaki/Germania.xlsx
+++ b/Database/Csaki/Germania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CCB533-88B9-44A3-A100-0E358759D0B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE78477F-F530-4CA4-B71B-E094E18EA957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2340" yWindow="1425" windowWidth="4710" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11535" yWindow="0" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D179"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="F170" sqref="F170"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="E180" sqref="E180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2944,6 +2944,132 @@
         <v>9265</v>
       </c>
     </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" s="2">
+        <v>219530</v>
+      </c>
+      <c r="C180" s="3">
+        <v>1030</v>
+      </c>
+      <c r="D180" s="4">
+        <v>9268</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="2">
+        <v>220850</v>
+      </c>
+      <c r="C181" s="3">
+        <v>1320</v>
+      </c>
+      <c r="D181" s="4">
+        <v>9276</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2">
+        <v>222269</v>
+      </c>
+      <c r="C182" s="3">
+        <v>1419</v>
+      </c>
+      <c r="D182" s="4">
+        <v>9281</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" s="2">
+        <v>223774</v>
+      </c>
+      <c r="C183" s="3">
+        <v>1505</v>
+      </c>
+      <c r="D183" s="4">
+        <v>9289</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2">
+        <v>224478</v>
+      </c>
+      <c r="C184" s="3">
+        <v>704</v>
+      </c>
+      <c r="D184" s="4">
+        <v>9290</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" s="2">
+        <v>224997</v>
+      </c>
+      <c r="C185" s="3">
+        <v>519</v>
+      </c>
+      <c r="D185" s="4">
+        <v>9290</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" s="2">
+        <v>226686</v>
+      </c>
+      <c r="C186" s="3">
+        <v>1689</v>
+      </c>
+      <c r="D186" s="4">
+        <v>9296</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" s="2">
+        <v>228105</v>
+      </c>
+      <c r="C187" s="3">
+        <v>1419</v>
+      </c>
+      <c r="D187" s="4">
+        <v>9305</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2">
+        <v>229700</v>
+      </c>
+      <c r="C188" s="3">
+        <v>1595</v>
+      </c>
+      <c r="D188" s="4">
+        <v>9314</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/Csaki/Germania.xlsx
+++ b/Database/Csaki/Germania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE78477F-F530-4CA4-B71B-E094E18EA957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CAFB7B-D6A8-4042-A88B-5EAC1F87C6B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11535" yWindow="0" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,15 +151,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Deaths" connectionId="2" xr16:uid="{1D238815-37DF-4809-A383-51952F6D3467}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Daily cases" connectionId="1" xr16:uid="{2CCC3EB7-464E-4763-B02B-4506B3C2DAD6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Daily cases" connectionId="1" xr16:uid="{2CCC3EB7-464E-4763-B02B-4506B3C2DAD6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Total cases" connectionId="3" xr16:uid="{F5496AA7-4DCF-4A56-8064-E6A126E899E4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Total cases" connectionId="3" xr16:uid="{F5496AA7-4DCF-4A56-8064-E6A126E899E4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Deaths" connectionId="2" xr16:uid="{1D238815-37DF-4809-A383-51952F6D3467}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="E180" sqref="E180"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3070,6 +3070,62 @@
         <v>9314</v>
       </c>
     </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" s="2">
+        <v>231284</v>
+      </c>
+      <c r="C189" s="3">
+        <v>1584</v>
+      </c>
+      <c r="D189" s="4">
+        <v>9324</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" s="2">
+        <v>233021</v>
+      </c>
+      <c r="C190" s="3">
+        <v>1737</v>
+      </c>
+      <c r="D190" s="4">
+        <v>9328</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" s="2">
+        <v>233857</v>
+      </c>
+      <c r="C191" s="3">
+        <v>836</v>
+      </c>
+      <c r="D191" s="4">
+        <v>9331</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" s="2">
+        <v>234489</v>
+      </c>
+      <c r="C192" s="3">
+        <v>632</v>
+      </c>
+      <c r="D192" s="4">
+        <v>9332</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/Csaki/Germania.xlsx
+++ b/Database/Csaki/Germania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CAFB7B-D6A8-4042-A88B-5EAC1F87C6B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4289472A-CAD0-46DD-989E-72B2683B40CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11535" yWindow="795" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D192"/>
+  <dimension ref="A1:D196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="A192" sqref="A192"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3126,6 +3126,62 @@
         <v>9332</v>
       </c>
     </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" s="2">
+        <v>236117</v>
+      </c>
+      <c r="C193" s="3">
+        <v>1628</v>
+      </c>
+      <c r="D193" s="4">
+        <v>9336</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" s="2">
+        <v>237572</v>
+      </c>
+      <c r="C194" s="3">
+        <v>1455</v>
+      </c>
+      <c r="D194" s="4">
+        <v>9345</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" s="2">
+        <v>239000</v>
+      </c>
+      <c r="C195" s="3">
+        <v>1428</v>
+      </c>
+      <c r="D195" s="4">
+        <v>9352</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" s="2">
+        <v>240565</v>
+      </c>
+      <c r="C196" s="3">
+        <v>1565</v>
+      </c>
+      <c r="D196" s="4">
+        <v>9359</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/Csaki/Germania.xlsx
+++ b/Database/Csaki/Germania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4289472A-CAD0-46DD-989E-72B2683B40CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE617428-48A5-4B07-AFAE-DC99F9FD20CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11535" yWindow="795" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D196"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3182,6 +3182,48 @@
         <v>9359</v>
       </c>
     </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" s="2">
+        <v>242114</v>
+      </c>
+      <c r="C197" s="3">
+        <v>1549</v>
+      </c>
+      <c r="D197" s="4">
+        <v>9360</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" s="2">
+        <v>242825</v>
+      </c>
+      <c r="C198" s="3">
+        <v>711</v>
+      </c>
+      <c r="D198" s="4">
+        <v>9363</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" s="2">
+        <v>243295</v>
+      </c>
+      <c r="C199" s="3">
+        <v>470</v>
+      </c>
+      <c r="D199" s="4">
+        <v>9364</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/Csaki/Germania.xlsx
+++ b/Database/Csaki/Germania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE617428-48A5-4B07-AFAE-DC99F9FD20CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F324F5-88A6-4C55-9C40-9D30E35AF3E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11535" yWindow="795" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11535" yWindow="1215" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="A199" sqref="A199"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="A207" sqref="A207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3224,6 +3224,118 @@
         <v>9364</v>
       </c>
     </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" s="2">
+        <v>244792</v>
+      </c>
+      <c r="C200" s="3">
+        <v>1497</v>
+      </c>
+      <c r="D200" s="4">
+        <v>9371</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" s="2">
+        <v>246001</v>
+      </c>
+      <c r="C201" s="3">
+        <v>1209</v>
+      </c>
+      <c r="D201" s="4">
+        <v>9381</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" s="2">
+        <v>247391</v>
+      </c>
+      <c r="C202" s="3">
+        <v>1390</v>
+      </c>
+      <c r="D202" s="4">
+        <v>9393</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" s="2">
+        <v>248814</v>
+      </c>
+      <c r="C203" s="3">
+        <v>1423</v>
+      </c>
+      <c r="D203" s="4">
+        <v>9399</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" s="2">
+        <v>250281</v>
+      </c>
+      <c r="C204" s="3">
+        <v>1467</v>
+      </c>
+      <c r="D204" s="4">
+        <v>9401</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" s="2">
+        <v>251056</v>
+      </c>
+      <c r="C205" s="3">
+        <v>775</v>
+      </c>
+      <c r="D205" s="4">
+        <v>9401</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" s="2">
+        <v>251724</v>
+      </c>
+      <c r="C206" s="3">
+        <v>668</v>
+      </c>
+      <c r="D206" s="4">
+        <v>9401</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" s="2">
+        <v>253625</v>
+      </c>
+      <c r="C207" s="3">
+        <v>1901</v>
+      </c>
+      <c r="D207" s="4">
+        <v>9405</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/Csaki/Germania.xlsx
+++ b/Database/Csaki/Germania.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F324F5-88A6-4C55-9C40-9D30E35AF3E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719CB503-35A9-4144-865E-69C2267C689A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11535" yWindow="1215" windowWidth="8955" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6285" yWindow="330" windowWidth="15165" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
   <definedNames>
     <definedName name="Daily_cases" localSheetId="0">Sheet1!$C$2:$C$172</definedName>
     <definedName name="Deaths" localSheetId="0">Sheet1!$D$2:$D$172</definedName>
+    <definedName name="New_Text_Document" localSheetId="0">Sheet1!$D$208:$D$233</definedName>
+    <definedName name="New_Text_Document_1" localSheetId="0">Sheet1!$C$208:$C$233</definedName>
+    <definedName name="New_Text_Document_2" localSheetId="0">Sheet1!$B$208:$B$233</definedName>
     <definedName name="Total_cases" localSheetId="0">Sheet1!$B$2:$B$172</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -45,7 +48,28 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{4E1F83FF-E0B9-403D-9A99-CDA89771F5B1}" name="Total cases" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{85539739-BE5F-446C-96C9-185587E1A326}" name="New Text Document" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Lajos Csaki\Desktop\New Text Document.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" xr16:uid="{F89C2375-5BF7-4884-A27F-5923FCB3F232}" name="New Text Document1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Lajos Csaki\Desktop\New Text Document.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" xr16:uid="{4C3B4A4B-125E-4200-850C-1F6FB4F458FD}" name="New Text Document2" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Lajos Csaki\Desktop\New Text Document.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" xr16:uid="{4E1F83FF-E0B9-403D-9A99-CDA89771F5B1}" name="Total cases" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Lajos Csaki\Desktop\Total cases.txt">
       <textFields>
         <textField/>
@@ -151,14 +175,26 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="New Text Document_2" connectionId="5" xr16:uid="{6D521232-3648-494F-9962-5219A60F0C37}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="New Text Document_1" connectionId="4" xr16:uid="{DF18E296-1929-4322-A313-B3CD5CE456B8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="New Text Document" connectionId="3" xr16:uid="{35719559-838C-4041-A3F1-9D3CCE858A0C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Daily cases" connectionId="1" xr16:uid="{2CCC3EB7-464E-4763-B02B-4506B3C2DAD6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Total cases" connectionId="3" xr16:uid="{F5496AA7-4DCF-4A56-8064-E6A126E899E4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Total cases" connectionId="6" xr16:uid="{F5496AA7-4DCF-4A56-8064-E6A126E899E4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Deaths" connectionId="2" xr16:uid="{1D238815-37DF-4809-A383-51952F6D3467}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -425,17 +461,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D207"/>
+  <dimension ref="A1:D233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="A207" sqref="A207"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="A234" sqref="A234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3336,6 +3371,370 @@
         <v>9405</v>
       </c>
     </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" s="2">
+        <v>254956</v>
+      </c>
+      <c r="C208" s="3">
+        <v>1331</v>
+      </c>
+      <c r="D208" s="4">
+        <v>9409</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" s="2">
+        <v>256349</v>
+      </c>
+      <c r="C209" s="3">
+        <v>1393</v>
+      </c>
+      <c r="D209" s="4">
+        <v>9410</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" s="2">
+        <v>258107</v>
+      </c>
+      <c r="C210" s="3">
+        <v>1758</v>
+      </c>
+      <c r="D210" s="4">
+        <v>9419</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" s="2">
+        <v>259725</v>
+      </c>
+      <c r="C211" s="3">
+        <v>1618</v>
+      </c>
+      <c r="D211" s="4">
+        <v>9423</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" s="2">
+        <v>260546</v>
+      </c>
+      <c r="C212" s="3">
+        <v>821</v>
+      </c>
+      <c r="D212" s="4">
+        <v>9427</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" s="2">
+        <v>261298</v>
+      </c>
+      <c r="C213" s="3">
+        <v>752</v>
+      </c>
+      <c r="D213" s="4">
+        <v>9428</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" s="2">
+        <v>263221</v>
+      </c>
+      <c r="C214" s="3">
+        <v>1923</v>
+      </c>
+      <c r="D214" s="4">
+        <v>9436</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" s="2">
+        <v>264844</v>
+      </c>
+      <c r="C215" s="3">
+        <v>1623</v>
+      </c>
+      <c r="D215" s="4">
+        <v>9445</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" s="2">
+        <v>266865</v>
+      </c>
+      <c r="C216" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D216" s="4">
+        <v>9449</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" s="2">
+        <v>269042</v>
+      </c>
+      <c r="C217" s="3">
+        <v>2177</v>
+      </c>
+      <c r="D217" s="4">
+        <v>9457</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" s="2">
+        <v>271244</v>
+      </c>
+      <c r="C218" s="3">
+        <v>2202</v>
+      </c>
+      <c r="D218" s="4">
+        <v>9464</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" s="2">
+        <v>272308</v>
+      </c>
+      <c r="C219" s="3">
+        <v>1064</v>
+      </c>
+      <c r="D219" s="4">
+        <v>9466</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" s="2">
+        <v>273477</v>
+      </c>
+      <c r="C220" s="3">
+        <v>1169</v>
+      </c>
+      <c r="D220" s="4">
+        <v>9470</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" s="2">
+        <v>275551</v>
+      </c>
+      <c r="C221" s="3">
+        <v>2074</v>
+      </c>
+      <c r="D221" s="4">
+        <v>9481</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" s="2">
+        <v>277176</v>
+      </c>
+      <c r="C222" s="3">
+        <v>1625</v>
+      </c>
+      <c r="D222" s="4">
+        <v>9491</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" s="2">
+        <v>279205</v>
+      </c>
+      <c r="C223" s="3">
+        <v>2029</v>
+      </c>
+      <c r="D223" s="4">
+        <v>9508</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" s="2">
+        <v>281345</v>
+      </c>
+      <c r="C224" s="3">
+        <v>2140</v>
+      </c>
+      <c r="D224" s="4">
+        <v>9519</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" s="2">
+        <v>283706</v>
+      </c>
+      <c r="C225" s="3">
+        <v>2361</v>
+      </c>
+      <c r="D225" s="4">
+        <v>9530</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" s="2">
+        <v>285025</v>
+      </c>
+      <c r="C226" s="3">
+        <v>1319</v>
+      </c>
+      <c r="D226" s="4">
+        <v>9532</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" s="2">
+        <v>286338</v>
+      </c>
+      <c r="C227" s="3">
+        <v>1313</v>
+      </c>
+      <c r="D227" s="4">
+        <v>9534</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" s="2">
+        <v>288618</v>
+      </c>
+      <c r="C228" s="3">
+        <v>2280</v>
+      </c>
+      <c r="D228" s="4">
+        <v>9545</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" s="2">
+        <v>290466</v>
+      </c>
+      <c r="C229" s="3">
+        <v>1848</v>
+      </c>
+      <c r="D229" s="4">
+        <v>9556</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" s="2">
+        <v>292911</v>
+      </c>
+      <c r="C230" s="3">
+        <v>2445</v>
+      </c>
+      <c r="D230" s="4">
+        <v>9571</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" s="2">
+        <v>295530</v>
+      </c>
+      <c r="C231" s="3">
+        <v>2619</v>
+      </c>
+      <c r="D231" s="4">
+        <v>9586</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" s="2">
+        <v>298363</v>
+      </c>
+      <c r="C232" s="3">
+        <v>2833</v>
+      </c>
+      <c r="D232" s="4">
+        <v>9596</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" s="2">
+        <v>300028</v>
+      </c>
+      <c r="C233" s="3">
+        <v>1665</v>
+      </c>
+      <c r="D233" s="4">
+        <v>9597</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database/Csaki/Germania.xlsx
+++ b/Database/Csaki/Germania.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lajos Csaki\Desktop\Practica UTCN\Practica_covid19_UTCN\Database\Csaki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719CB503-35A9-4144-865E-69C2267C689A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FFD331-0CE0-42FE-B0F8-AA3DF9DEADE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="330" windowWidth="15165" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="744" yWindow="0" windowWidth="11460" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
   <definedNames>
     <definedName name="Daily_cases" localSheetId="0">Sheet1!$C$2:$C$172</definedName>
     <definedName name="Deaths" localSheetId="0">Sheet1!$D$2:$D$172</definedName>
-    <definedName name="New_Text_Document" localSheetId="0">Sheet1!$D$208:$D$233</definedName>
-    <definedName name="New_Text_Document_1" localSheetId="0">Sheet1!$C$208:$C$233</definedName>
-    <definedName name="New_Text_Document_2" localSheetId="0">Sheet1!$B$208:$B$233</definedName>
     <definedName name="Total_cases" localSheetId="0">Sheet1!$B$2:$B$172</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -48,28 +45,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{85539739-BE5F-446C-96C9-185587E1A326}" name="New Text Document" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\Lajos Csaki\Desktop\New Text Document.txt">
-      <textFields>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="4" xr16:uid="{F89C2375-5BF7-4884-A27F-5923FCB3F232}" name="New Text Document1" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\Lajos Csaki\Desktop\New Text Document.txt">
-      <textFields>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="5" xr16:uid="{4C3B4A4B-125E-4200-850C-1F6FB4F458FD}" name="New Text Document2" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="C:\Users\Lajos Csaki\Desktop\New Text Document.txt">
-      <textFields>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="6" xr16:uid="{4E1F83FF-E0B9-403D-9A99-CDA89771F5B1}" name="Total cases" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{4E1F83FF-E0B9-403D-9A99-CDA89771F5B1}" name="Total cases" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Lajos Csaki\Desktop\Total cases.txt">
       <textFields>
         <textField/>
@@ -175,27 +151,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="New Text Document_2" connectionId="5" xr16:uid="{6D521232-3648-494F-9962-5219A60F0C37}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Total cases" connectionId="3" xr16:uid="{F5496AA7-4DCF-4A56-8064-E6A126E899E4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="New Text Document_1" connectionId="4" xr16:uid="{DF18E296-1929-4322-A313-B3CD5CE456B8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Deaths" connectionId="2" xr16:uid="{1D238815-37DF-4809-A383-51952F6D3467}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="New Text Document" connectionId="3" xr16:uid="{35719559-838C-4041-A3F1-9D3CCE858A0C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Daily cases" connectionId="1" xr16:uid="{2CCC3EB7-464E-4763-B02B-4506B3C2DAD6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Total cases" connectionId="6" xr16:uid="{F5496AA7-4DCF-4A56-8064-E6A126E899E4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Deaths" connectionId="2" xr16:uid="{1D238815-37DF-4809-A383-51952F6D3467}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,19 +425,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D233"/>
+  <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="A234" sqref="A234"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="H260" sqref="H260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -501,7 +466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -515,7 +480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -529,7 +494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -543,7 +508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -557,7 +522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -571,7 +536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -585,7 +550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -599,7 +564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -613,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -627,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -641,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -655,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -669,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -683,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -697,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -711,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -725,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -739,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -753,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -767,7 +732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -781,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -795,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -809,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -823,7 +788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -837,7 +802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -851,7 +816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -865,7 +830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -879,7 +844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -893,7 +858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -907,7 +872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -921,7 +886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -935,7 +900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -949,7 +914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -963,7 +928,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -977,7 +942,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -991,7 +956,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1005,7 +970,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1019,7 +984,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1033,7 +998,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1047,7 +1012,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1061,7 +1026,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1075,7 +1040,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1089,7 +1054,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1103,7 +1068,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1117,7 +1082,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1131,7 +1096,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1145,7 +1110,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1159,7 +1124,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1173,7 +1138,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1187,7 +1152,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1201,7 +1166,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1215,7 +1180,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1229,7 +1194,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1243,7 +1208,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1257,7 +1222,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1271,7 +1236,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1285,7 +1250,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1299,7 +1264,7 @@
         <v>3022</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1313,7 +1278,7 @@
         <v>3194</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1327,7 +1292,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1341,7 +1306,7 @@
         <v>3804</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1355,7 +1320,7 @@
         <v>4052</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1369,7 +1334,7 @@
         <v>4352</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1383,7 +1348,7 @@
         <v>4538</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1397,7 +1362,7 @@
         <v>4642</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1411,7 +1376,7 @@
         <v>4862</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1425,7 +1390,7 @@
         <v>5086</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1439,7 +1404,7 @@
         <v>5315</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1453,7 +1418,7 @@
         <v>5575</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1467,7 +1432,7 @@
         <v>5760</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1481,7 +1446,7 @@
         <v>5877</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1495,7 +1460,7 @@
         <v>5976</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1509,7 +1474,7 @@
         <v>6126</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1523,7 +1488,7 @@
         <v>6314</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1537,7 +1502,7 @@
         <v>6467</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1551,7 +1516,7 @@
         <v>6623</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1565,7 +1530,7 @@
         <v>6736</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1579,7 +1544,7 @@
         <v>6812</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1593,7 +1558,7 @@
         <v>6866</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1607,7 +1572,7 @@
         <v>6993</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1621,7 +1586,7 @@
         <v>6993</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1635,7 +1600,7 @@
         <v>7275</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1649,7 +1614,7 @@
         <v>7392</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1663,7 +1628,7 @@
         <v>7510</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1677,7 +1642,7 @@
         <v>7549</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1691,7 +1656,7 @@
         <v>7569</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1705,7 +1670,7 @@
         <v>7661</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1719,7 +1684,7 @@
         <v>7738</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1733,7 +1698,7 @@
         <v>7861</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1747,7 +1712,7 @@
         <v>7928</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1761,7 +1726,7 @@
         <v>8001</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1775,7 +1740,7 @@
         <v>8027</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1789,7 +1754,7 @@
         <v>8049</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1803,7 +1768,7 @@
         <v>8123</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1817,7 +1782,7 @@
         <v>8193</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1831,7 +1796,7 @@
         <v>8270</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1845,7 +1810,7 @@
         <v>8309</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1859,7 +1824,7 @@
         <v>8352</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1873,7 +1838,7 @@
         <v>8366</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -1887,7 +1852,7 @@
         <v>8371</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -1901,7 +1866,7 @@
         <v>8428</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -1915,7 +1880,7 @@
         <v>8498</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -1929,7 +1894,7 @@
         <v>8533</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -1943,7 +1908,7 @@
         <v>8570</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -1957,7 +1922,7 @@
         <v>8594</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -1971,7 +1936,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -1985,7 +1950,7 @@
         <v>8605</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -1999,7 +1964,7 @@
         <v>8618</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2013,7 +1978,7 @@
         <v>8674</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2027,7 +1992,7 @@
         <v>8699</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2041,7 +2006,7 @@
         <v>8736</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2055,7 +2020,7 @@
         <v>8763</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2069,7 +2034,7 @@
         <v>8769</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2083,7 +2048,7 @@
         <v>8776</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2097,7 +2062,7 @@
         <v>8783</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2111,7 +2076,7 @@
         <v>8831</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2125,7 +2090,7 @@
         <v>8844</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2139,7 +2104,7 @@
         <v>8851</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2153,7 +2118,7 @@
         <v>8863</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2167,7 +2132,7 @@
         <v>8867</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -2181,7 +2146,7 @@
         <v>8870</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -2195,7 +2160,7 @@
         <v>8885</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -2209,7 +2174,7 @@
         <v>8910</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -2223,7 +2188,7 @@
         <v>8927</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -2237,7 +2202,7 @@
         <v>8946</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -2251,7 +2216,7 @@
         <v>8960</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -2265,7 +2230,7 @@
         <v>8961</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -2279,7 +2244,7 @@
         <v>8962</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -2293,7 +2258,7 @@
         <v>8969</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -2307,7 +2272,7 @@
         <v>8986</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -2321,7 +2286,7 @@
         <v>9003</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -2335,7 +2300,7 @@
         <v>9012</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -2349,7 +2314,7 @@
         <v>9026</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -2363,7 +2328,7 @@
         <v>9026</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -2377,7 +2342,7 @@
         <v>9029</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -2391,7 +2356,7 @@
         <v>9041</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -2405,7 +2370,7 @@
         <v>9052</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -2419,7 +2384,7 @@
         <v>9061</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -2433,7 +2398,7 @@
         <v>9064</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -2447,7 +2412,7 @@
         <v>9073</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -2461,7 +2426,7 @@
         <v>9081</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -2475,7 +2440,7 @@
         <v>9086</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -2489,7 +2454,7 @@
         <v>9092</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -2503,7 +2468,7 @@
         <v>9103</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -2517,7 +2482,7 @@
         <v>9115</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -2531,7 +2496,7 @@
         <v>9125</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -2545,7 +2510,7 @@
         <v>9130</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -2559,7 +2524,7 @@
         <v>9134</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -2573,7 +2538,7 @@
         <v>9134</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -2587,7 +2552,7 @@
         <v>9139</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -2601,7 +2566,7 @@
         <v>9144</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -2615,7 +2580,7 @@
         <v>9148</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -2629,7 +2594,7 @@
         <v>9157</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -2643,7 +2608,7 @@
         <v>9160</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -2657,7 +2622,7 @@
         <v>9162</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -2671,7 +2636,7 @@
         <v>9163</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -2685,7 +2650,7 @@
         <v>9173</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -2699,7 +2664,7 @@
         <v>9180</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -2713,7 +2678,7 @@
         <v>9182</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -2727,7 +2692,7 @@
         <v>9187</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -2741,7 +2706,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -2755,7 +2720,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -2769,7 +2734,7 @@
         <v>9203</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -2783,7 +2748,7 @@
         <v>9205</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -2797,7 +2762,7 @@
         <v>9207</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -2811,7 +2776,7 @@
         <v>9212</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -2825,7 +2790,7 @@
         <v>9221</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -2839,7 +2804,7 @@
         <v>9224</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -2853,7 +2818,7 @@
         <v>9226</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -2867,7 +2832,7 @@
         <v>9226</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -2881,7 +2846,7 @@
         <v>9232</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -2895,7 +2860,7 @@
         <v>9232</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -2909,7 +2874,7 @@
         <v>9245</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -2923,7 +2888,7 @@
         <v>9252</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -2937,7 +2902,7 @@
         <v>9254</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -2951,7 +2916,7 @@
         <v>9260</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -2965,7 +2930,7 @@
         <v>9260</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -2979,7 +2944,7 @@
         <v>9265</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -2993,7 +2958,7 @@
         <v>9268</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -3007,7 +2972,7 @@
         <v>9276</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -3021,7 +2986,7 @@
         <v>9281</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -3035,7 +3000,7 @@
         <v>9289</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -3049,7 +3014,7 @@
         <v>9290</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -3063,7 +3028,7 @@
         <v>9290</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -3077,7 +3042,7 @@
         <v>9296</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -3091,7 +3056,7 @@
         <v>9305</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -3105,7 +3070,7 @@
         <v>9314</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -3119,7 +3084,7 @@
         <v>9324</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -3133,7 +3098,7 @@
         <v>9328</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -3147,7 +3112,7 @@
         <v>9331</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -3161,7 +3126,7 @@
         <v>9332</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -3175,7 +3140,7 @@
         <v>9336</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -3189,7 +3154,7 @@
         <v>9345</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -3203,7 +3168,7 @@
         <v>9352</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -3217,7 +3182,7 @@
         <v>9359</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -3231,7 +3196,7 @@
         <v>9360</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -3245,7 +3210,7 @@
         <v>9363</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -3259,7 +3224,7 @@
         <v>9364</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -3273,7 +3238,7 @@
         <v>9371</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -3287,7 +3252,7 @@
         <v>9381</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -3301,7 +3266,7 @@
         <v>9393</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -3315,7 +3280,7 @@
         <v>9399</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -3329,7 +3294,7 @@
         <v>9401</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -3343,7 +3308,7 @@
         <v>9401</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -3357,7 +3322,7 @@
         <v>9401</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -3371,7 +3336,7 @@
         <v>9405</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -3385,7 +3350,7 @@
         <v>9409</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -3399,7 +3364,7 @@
         <v>9410</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -3413,7 +3378,7 @@
         <v>9419</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -3427,7 +3392,7 @@
         <v>9423</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -3441,7 +3406,7 @@
         <v>9427</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -3455,7 +3420,7 @@
         <v>9428</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -3469,7 +3434,7 @@
         <v>9436</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -3483,7 +3448,7 @@
         <v>9445</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -3497,7 +3462,7 @@
         <v>9449</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -3511,7 +3476,7 @@
         <v>9457</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -3525,7 +3490,7 @@
         <v>9464</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -3539,7 +3504,7 @@
         <v>9466</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -3553,7 +3518,7 @@
         <v>9470</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -3567,7 +3532,7 @@
         <v>9481</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -3581,7 +3546,7 @@
         <v>9491</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -3595,7 +3560,7 @@
         <v>9508</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -3609,7 +3574,7 @@
         <v>9519</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -3623,7 +3588,7 @@
         <v>9530</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -3637,7 +3602,7 @@
         <v>9532</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -3651,7 +3616,7 @@
         <v>9534</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -3665,7 +3630,7 @@
         <v>9545</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -3679,7 +3644,7 @@
         <v>9556</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -3693,7 +3658,7 @@
         <v>9571</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -3707,7 +3672,7 @@
         <v>9586</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -3721,7 +3686,7 @@
         <v>9596</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -3733,6 +3698,398 @@
       </c>
       <c r="D233" s="4">
         <v>9597</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" s="2">
+        <v>301571</v>
+      </c>
+      <c r="C234" s="3">
+        <v>1543</v>
+      </c>
+      <c r="D234" s="4">
+        <v>9602</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" s="2">
+        <v>304657</v>
+      </c>
+      <c r="C235" s="3">
+        <v>3086</v>
+      </c>
+      <c r="D235" s="4">
+        <v>9616</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" s="2">
+        <v>307119</v>
+      </c>
+      <c r="C236" s="3">
+        <v>2462</v>
+      </c>
+      <c r="D236" s="4">
+        <v>9635</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" s="2">
+        <v>311113</v>
+      </c>
+      <c r="C237" s="3">
+        <v>3994</v>
+      </c>
+      <c r="D237" s="4">
+        <v>9652</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" s="2">
+        <v>315514</v>
+      </c>
+      <c r="C238" s="3">
+        <v>4401</v>
+      </c>
+      <c r="D238" s="4">
+        <v>9667</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" s="2">
+        <v>320478</v>
+      </c>
+      <c r="C239" s="3">
+        <v>4964</v>
+      </c>
+      <c r="D239" s="4">
+        <v>9687</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" s="2">
+        <v>323453</v>
+      </c>
+      <c r="C240" s="3">
+        <v>2975</v>
+      </c>
+      <c r="D240" s="4">
+        <v>9691</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" s="2">
+        <v>326291</v>
+      </c>
+      <c r="C241" s="3">
+        <v>2838</v>
+      </c>
+      <c r="D241" s="4">
+        <v>9702</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" s="2">
+        <v>331094</v>
+      </c>
+      <c r="C242" s="3">
+        <v>4803</v>
+      </c>
+      <c r="D242" s="4">
+        <v>9721</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" s="2">
+        <v>335679</v>
+      </c>
+      <c r="C243" s="3">
+        <v>4585</v>
+      </c>
+      <c r="D243" s="4">
+        <v>9740</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" s="2">
+        <v>341742</v>
+      </c>
+      <c r="C244" s="3">
+        <v>6063</v>
+      </c>
+      <c r="D244" s="4">
+        <v>9771</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" s="2">
+        <v>348816</v>
+      </c>
+      <c r="C245" s="3">
+        <v>7074</v>
+      </c>
+      <c r="D245" s="4">
+        <v>9810</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" s="2">
+        <v>356792</v>
+      </c>
+      <c r="C246" s="3">
+        <v>7976</v>
+      </c>
+      <c r="D246" s="4">
+        <v>9836</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" s="2">
+        <v>361733</v>
+      </c>
+      <c r="C247" s="3">
+        <v>4941</v>
+      </c>
+      <c r="D247" s="4">
+        <v>9853</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" s="2">
+        <v>366981</v>
+      </c>
+      <c r="C248" s="3">
+        <v>5248</v>
+      </c>
+      <c r="D248" s="4">
+        <v>9866</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" s="2">
+        <v>373731</v>
+      </c>
+      <c r="C249" s="3">
+        <v>6750</v>
+      </c>
+      <c r="D249" s="4">
+        <v>9899</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" s="2">
+        <v>380898</v>
+      </c>
+      <c r="C250" s="3">
+        <v>7167</v>
+      </c>
+      <c r="D250" s="4">
+        <v>9955</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" s="2">
+        <v>391355</v>
+      </c>
+      <c r="C251" s="3">
+        <v>10457</v>
+      </c>
+      <c r="D251" s="4">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" s="2">
+        <v>403874</v>
+      </c>
+      <c r="C252" s="3">
+        <v>12519</v>
+      </c>
+      <c r="D252" s="4">
+        <v>10044</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" s="2">
+        <v>417350</v>
+      </c>
+      <c r="C253" s="3">
+        <v>13476</v>
+      </c>
+      <c r="D253" s="4">
+        <v>10090</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" s="2">
+        <v>427808</v>
+      </c>
+      <c r="C254" s="3">
+        <v>10458</v>
+      </c>
+      <c r="D254" s="4">
+        <v>10111</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" s="2">
+        <v>437637</v>
+      </c>
+      <c r="C255" s="3">
+        <v>9829</v>
+      </c>
+      <c r="D255" s="4">
+        <v>10138</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" s="2">
+        <v>450258</v>
+      </c>
+      <c r="C256" s="3">
+        <v>12621</v>
+      </c>
+      <c r="D256" s="4">
+        <v>10182</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" s="2">
+        <v>463419</v>
+      </c>
+      <c r="C257" s="3">
+        <v>13161</v>
+      </c>
+      <c r="D257" s="4">
+        <v>10263</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" s="2">
+        <v>479621</v>
+      </c>
+      <c r="C258" s="3">
+        <v>16202</v>
+      </c>
+      <c r="D258" s="4">
+        <v>10359</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" s="2">
+        <v>498353</v>
+      </c>
+      <c r="C259" s="3">
+        <v>18732</v>
+      </c>
+      <c r="D259" s="4">
+        <v>10435</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" s="2">
+        <v>517720</v>
+      </c>
+      <c r="C260" s="3">
+        <v>19367</v>
+      </c>
+      <c r="D260" s="4">
+        <v>10523</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" s="2">
+        <v>531790</v>
+      </c>
+      <c r="C261" s="3">
+        <v>14070</v>
+      </c>
+      <c r="D261" s="4">
+        <v>10583</v>
       </c>
     </row>
   </sheetData>
